--- a/warframe_dmg_calc/weapons/Sonicor/Sonicor.xlsx
+++ b/warframe_dmg_calc/weapons/Sonicor/Sonicor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marti\Desktop\Git_Repos\Martin_MATLAB\warframe_dmg_calc\weapons\Sonicor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E5EB97-CBE9-4BF8-86EE-4DAC41E8F849}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408A3538-9402-4FA5-A968-AA938AFB8B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19035" yWindow="1200" windowWidth="21975" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>slot</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>semi</t>
+  </si>
+  <si>
+    <t>Phase_delay</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>CH</t>
   </si>
 </sst>
 </file>
@@ -450,9 +459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -501,116 +512,110 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>150</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -621,7 +626,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -632,7 +637,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -643,7 +648,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -654,7 +659,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -665,7 +670,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -676,7 +681,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -687,7 +692,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -698,7 +703,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -709,31 +714,40 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -741,33 +755,57 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B36">
         <v>1</v>
       </c>
     </row>
